--- a/biology/Médecine/Région_sus-claviculaire/Région_sus-claviculaire.xlsx
+++ b/biology/Médecine/Région_sus-claviculaire/Région_sus-claviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_sus-claviculaire</t>
+          <t>Région_sus-claviculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région sus-claviculaire (ou région cervicale latérale ou grande fosse supra-claviculaire[1]) est une région du cou.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région sus-claviculaire (ou région cervicale latérale ou grande fosse supra-claviculaire) est une région du cou.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_sus-claviculaire</t>
+          <t>Région_sus-claviculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Limite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sommet de la région sus-claviculaire est définie par l'union des muscles sterno-cléido-mastoïdien et trapèze au niveau de la ligne nucale supérieure de l'os occipital. A l'avant sa limite est le bord postérieur du muscle sterno-cléido-mastoïdien, en arrière c'est le bord antérieur du muscle trapèze et en bas le tiers médian de la clavicule.
 Sa face superficielle est formée par la lame superficielle du fascia cervical.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_sus-claviculaire</t>
+          <t>Région_sus-claviculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,21 +561,129 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nerfs
-La région sus-claviculaire contient :
+          <t>Nerfs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La région sus-claviculaire contient :
 le nerf accessoire spinal ;
 des branches du plexus cervical ;
 les racines et les troncs du plexus brachial ;
-le nerf phrénique.
-Vaisseaux sanguins
-La région sus-claviculaire contient :
+le nerf phrénique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Région_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vaisseaux sanguins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La région sus-claviculaire contient :
 la troisième partie de l'artère subclavière ;Artère cervicale transversale
 l'artère supra-scapulaire ;
-la partie terminale de la  veine jugulaire externe.
-Ganglions lymphatiques
-La région sus-claviculaire contient les ganglions lymphatiques occipitaux et supra-claviculaires.
-Muscles
-La région sus-claviculaire contient les muscles :
+la partie terminale de la  veine jugulaire externe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Région_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ganglions lymphatiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région sus-claviculaire contient les ganglions lymphatiques occipitaux et supra-claviculaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenu</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Muscles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La région sus-claviculaire contient les muscles :
 omohyoïdien (ventre inférieur)
 scalène antérieur
 scalène moyen
@@ -571,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>R%C3%A9gion_sus-claviculaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Région_sus-claviculaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_sus-claviculaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf accessoire (CN XI) est particulièrement vulnérable lors de la biopsie des ganglions lymphatiques dans cette zone. Les dommages occasionnés entraînent une incapacité à hausser les épaules ou à lever le bras au-dessus de la tête en raison de la rupture d'innervation du muscle trapèze.
 L'emplacement superficiel de la veine jugulaire externe la rend également vulnérable aux blessures.
